--- a/Test Design Technics.xlsx
+++ b/Test Design Technics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roman\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6601791-056A-4F8A-A178-CB4054930170}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908D92E0-92AD-4C80-9BD9-74D12775F2C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="2" xr2:uid="{BB72BF8E-9173-43DF-AEBB-72205B9A5435}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="3" xr2:uid="{BB72BF8E-9173-43DF-AEBB-72205B9A5435}"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="1" r:id="rId1"/>
@@ -122,49 +122,7 @@
     <t>Yulia Sherenkova</t>
   </si>
   <si>
-    <t>Check if user who has completed 3 flights has a clasic card</t>
-  </si>
-  <si>
-    <t>Steps:
-1.Open user personal data
-2.Check the number of user implemented flights
-3.Сheck if user has a Classic card</t>
-  </si>
-  <si>
-    <t>Check if user who has completed 19 flights has a clasic card</t>
-  </si>
-  <si>
-    <t>1.User`s personal data should be opened
-2.The number of implemented flights should be equal 3
-3.User should has a Plastic card</t>
-  </si>
-  <si>
-    <t>1.User`s personal data should be opened
-2.The number of implemented flights should be equal 19
-3.User should has a Plastic card</t>
-  </si>
-  <si>
-    <t>Check if user who has completed 2 flights hasn`t a clasic card</t>
-  </si>
-  <si>
-    <t>Steps:
-1.Open user personal data
-2.Check the number of user implemented flights
-3.Сheck if user hasn`t a Classic card</t>
-  </si>
-  <si>
-    <t>1.User`s personal data should be opened
-2.The number of implemented flights should be equal 2
-3.User should hasn`t a Plastic card</t>
-  </si>
-  <si>
     <t>Check if user who has completed 20 flights has a  Premium card</t>
-  </si>
-  <si>
-    <t>Steps:
-1.Open user personal data
-2.Check the number of user implemented flights
-3.Сheck if user has a Premium card</t>
   </si>
   <si>
     <t>1.User`s personal data should be opened
@@ -183,35 +141,7 @@
     <t>Check if 2 years old user or older becomes a member of the program</t>
   </si>
   <si>
-    <t>1.The Questionnaire should be opened
-2.The Questionnaire should be filled with valid values
-3.Age specified
-4.The qustionnaire should be accepted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steps:
-1.Open the questionnaire
-1.Fill the questionnaire with valid values
-3.Indicate the age: 2 years old
-4.Press "Submit" button
-</t>
-  </si>
-  <si>
     <t>Check if user less then 2 years old can`t become a member of the program</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steps:
-1.Open the questionnaire
-1.Fill the questionnaire with valid values
-3.Indicate the age: less then 2 years old
-4.Press "Submit" button
-</t>
-  </si>
-  <si>
-    <t>1.The Questionnaire should be opened
-2.The Questionnaire should be filled with valid values
-3.Age specified
-4.The qustionnaire should not be accepted</t>
   </si>
   <si>
     <t>UC:</t>
@@ -266,6 +196,255 @@
     <t>2.There are errors in filling the form
    2.1.The site report errors in filling out the "Contacts" and "Traveler 1" forms 
    2.2.Go to the step 7 of the main scenario</t>
+  </si>
+  <si>
+    <t>1.User`s personal data should be opened
+2.The number of implemented flights should be equal 3
+3.User should has a Сlassic card</t>
+  </si>
+  <si>
+    <t>1.User`s personal data should be opened
+2.The number of implemented flights should be equal 19
+3.User should has a Classic card</t>
+  </si>
+  <si>
+    <t>1.User`s personal data should be opened
+2.The number of implemented flights should be equal 2
+3.User should hasn`t a Classic card</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Precondition:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+User must be member of the program
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.Open user personal data
+2.Check the number of user implemented flights
+3.Сheck if user has a Classic card</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Precondition:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+User must be member of the program
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.Open user personal data
+2.Check the number of user implemented flights
+3.Сheck if user hasn`t a Classic card</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Precondition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+User must be member of the program
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+1.Open user personal data
+2.Check the number of user implemented flights
+3.Сheck if user has a Premium card</t>
+    </r>
+  </si>
+  <si>
+    <t>Check if user who has completed 2 flights hasn`t a Classic card</t>
+  </si>
+  <si>
+    <t>Check if user who has completed 19 flights has a Classic card</t>
+  </si>
+  <si>
+    <t>Check if user who has completed 3 flights has a Classic card</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+1.Open the questionnaire
+2.Fill the questionnaire with valid values and indicate the age: "2 years old"
+3.Press "Submit" button</t>
+    </r>
+  </si>
+  <si>
+    <t>1.The Questionnaire should be opened
+2.The Questionnaire should be filled with valid values and age is specified
+3.The qustionnaire should be accepted</t>
+  </si>
+  <si>
+    <t>1.The Questionnaire should be opened
+2.The Questionnaire should be filled with valid values and age is specified
+3.The qustionnaire should not be accepted and message should be displayed:People who are 2 years old and older at the time of form filing can`t become members of the Program</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+1.Open the questionnaire
+2.Fill the questionnaire with valid values and indicate the age: "less then 2 years old"
+3.Press "Submit" button</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -520,8 +699,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -535,6 +712,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -906,7 +1085,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,7 +1138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3C39552-51DB-42B3-8A31-500F5FAA5C19}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
@@ -1582,8 +1761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{483AD3F9-E702-481A-BEB6-E698558E6D04}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1592,6 +1771,7 @@
     <col min="2" max="2" width="68.140625" customWidth="1"/>
     <col min="3" max="3" width="54.5703125" customWidth="1"/>
     <col min="4" max="4" width="59.5703125" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1619,18 +1799,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>24</v>
@@ -1642,18 +1822,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>24</v>
@@ -1665,18 +1845,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>24</v>
@@ -1688,18 +1868,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>24</v>
@@ -1711,18 +1891,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>24</v>
@@ -1734,18 +1914,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>24</v>
@@ -1757,18 +1937,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>7</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>24</v>
@@ -1782,6 +1962,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1800,59 +1981,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="22"/>
+      <c r="A1" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="27"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
-        <v>46</v>
+      <c r="A2" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>51</v>
+      <c r="A3" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>54</v>
+      <c r="A4" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>52</v>
+      <c r="A5" s="24" t="s">
+        <v>39</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="29"/>
-      <c r="B7" s="24" t="s">
-        <v>57</v>
+      <c r="B7" s="22" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="27"/>
+      <c r="B8" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
